--- a/EdgeDetection/AngleExplain.xlsx
+++ b/EdgeDetection/AngleExplain.xlsx
@@ -93,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,10 +158,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:L11"/>
+  <dimension ref="C3:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,76 +495,86 @@
     <col min="8" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="O5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="O6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L8">
-        <f>360-22.5</f>
-        <v>337.5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" t="s">
+      <c r="J10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
